--- a/pivotTable.xlsx
+++ b/pivotTable.xlsx
@@ -9,31 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="salary Dashboard" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="Slicer_dep">#N/A</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
     <pivotCache cacheId="5" r:id="rId6"/>
   </pivotCaches>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
-      <x14:slicerCaches>
-        <x14:slicerCache r:id="rId7"/>
-      </x14:slicerCaches>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
-    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -42,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="36">
   <si>
     <t>salary</t>
   </si>
@@ -146,6 +135,9 @@
     <t>Noida</t>
   </si>
   <si>
+    <t>Sum of salary</t>
+  </si>
+  <si>
     <t>Location</t>
   </si>
 </sst>
@@ -178,7 +170,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,12 +179,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -209,14 +213,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -231,12 +247,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -254,78 +273,2731 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[pivotTable.xlsx]Sheet1!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$E$5:$E$10</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="4"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>emp-112</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>emp-104</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>emp-116</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>emp-108</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>hr</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$5:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>38760</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15075</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A7C-413A-9582-4C941D1FCD46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="239669536"/>
+        <c:axId val="239669208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="239669536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="239669208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="239669208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="239669536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Devlopment</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'salary Dashboard'!$A$4:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>devlopment</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>emp-106</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>emp-114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>emp-118</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>emp-110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>emp-102</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'salary Dashboard'!$B$4:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>147621</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37124</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26185</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19188</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-432D-46EA-BFBE-F531FE199663}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="387787144"/>
+        <c:axId val="387781240"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="387787144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387781240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="387781240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="387787144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>HR</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'salary Dashboard'!$L$4:$L$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>hr</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>emp-112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>emp-104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>emp-116</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>emp-108</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'salary Dashboard'!$M$4:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>80634</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38760</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-275E-4547-8853-E0DEC701A413}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="381645424"/>
+        <c:axId val="381647720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="381645424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381647720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="381647720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381645424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="dep"/>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="dep"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3971925" y="533400"/>
-              <a:ext cx="1828800" cy="2524125"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -527,10 +3199,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Location">
-  <location ref="E4:E16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Location">
+  <location ref="E4:F10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="20">
         <item x="0"/>
         <item x="1"/>
@@ -553,8 +3225,17 @@
         <item x="18"/>
         <item t="default"/>
       </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
     </pivotField>
-    <pivotField showAll="0">
+    <pivotField dataField="1" showAll="0">
       <items count="20">
         <item x="18"/>
         <item x="0"/>
@@ -578,7 +3259,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0">
       <items count="4">
         <item x="0"/>
         <item x="2"/>
@@ -586,54 +3267,44 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="5">
-        <item x="1"/>
-        <item h="1" sd="0" x="3"/>
-        <item h="1" sd="0" x="2"/>
-        <item h="1" sd="0" x="0"/>
+        <item h="1" x="1"/>
+        <item x="3"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
         <item t="default"/>
       </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
     </pivotField>
   </pivotFields>
-  <rowFields count="3">
-    <field x="2"/>
+  <rowFields count="2">
     <field x="3"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="12">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="9"/>
-    </i>
+  <rowItems count="6">
     <i>
       <x v="1"/>
     </i>
     <i r="1">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="2">
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="2"/>
+      <x v="11"/>
     </i>
     <i r="1">
-      <x/>
+      <x v="3"/>
     </i>
-    <i r="2">
-      <x v="1"/>
+    <i r="1">
+      <x v="15"/>
     </i>
-    <i r="2">
-      <x v="13"/>
+    <i r="1">
+      <x v="7"/>
     </i>
     <i t="grand">
       <x/>
@@ -642,6 +3313,29 @@
   <colItems count="1">
     <i/>
   </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of salary" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -649,30 +3343,6 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_dep" sourceName="dep">
-  <pivotTables>
-    <pivotTable tabId="1" name="PivotTable1"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="1">
-      <items count="4">
-        <i x="1" s="1"/>
-        <i x="3"/>
-        <i x="2"/>
-        <i x="0"/>
-      </items>
-    </tabular>
-  </data>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="dep" cache="Slicer_dep" caption="dep" rowHeight="241300"/>
-</slicers>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -938,10 +3608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,14 +3619,14 @@
     <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="5" customWidth="1"/>
     <col min="8" max="24" width="6" customWidth="1"/>
     <col min="25" max="25" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -970,7 +3640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -984,7 +3654,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -998,7 +3668,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1012,10 +3682,13 @@
         <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1029,10 +3702,13 @@
         <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F5" s="10">
+        <v>80634</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1045,11 +3721,14 @@
       <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="10">
+        <v>38760</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1062,11 +3741,14 @@
       <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="10">
+        <v>15899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1079,11 +3761,14 @@
       <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="10">
+        <v>15075</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1096,11 +3781,14 @@
       <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="10">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1113,11 +3801,14 @@
       <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="10">
+        <v>80634</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1130,11 +3821,8 @@
       <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1147,11 +3835,8 @@
       <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1164,11 +3849,8 @@
       <c r="D13" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1181,11 +3863,8 @@
       <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1198,11 +3877,8 @@
       <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1214,9 +3890,6 @@
       </c>
       <c r="D16" t="s">
         <v>28</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1278,13 +3951,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
-      <x14:slicerList>
-        <x14:slicer r:id="rId3"/>
-      </x14:slicerList>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1305,277 +3971,277 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="7" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="12">
         <v>129947</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="12">
         <v>159900</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="10">
+      <c r="R2" s="12">
         <v>137990</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="11">
         <v>26185</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="11">
         <v>68249</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="11">
         <v>53187</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="11">
         <v>30974</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="11">
         <v>38760</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="11">
         <v>10900</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="11">
         <v>32931</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="11">
         <v>36605</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="11">
         <v>14021</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="11">
         <v>39857</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="11">
         <v>16286</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="11">
         <v>59882</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1587,13 +4253,110 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A4:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2" style="14" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="12">
+        <v>147621</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="12">
+        <v>80634</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="10">
+        <v>37124</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="10">
+        <v>38760</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="10">
+        <v>33999</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="10">
+        <v>15899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="10">
+        <v>31125</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" s="10">
+        <v>15075</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="10">
+        <v>26185</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="10">
+        <v>10900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="10">
+        <v>19188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="13">
+        <v>147621</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
